--- a/Dokument/Figures/Graf_HNSW.xlsx
+++ b/Dokument/Figures/Graf_HNSW.xlsx
@@ -8,13 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HDD VŠB\Git VŠB - StandAlones\hnsw_filters\Dokument\Figures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D9043A9-5258-4AEE-A01C-554B2698B83B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4287A849-255B-48F0-B6D2-FD9BD662BC1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">List1!$B$67</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">List1!$B$67:$B$71</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">List1!$C$67</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">List1!$F$67</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">List1!$F$67</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>Precision</t>
   </si>
@@ -218,6 +225,27 @@
   <si>
     <t>2832.61</t>
   </si>
+  <si>
+    <t>Impl. s filtrem</t>
+  </si>
+  <si>
+    <t>Impl. bez filtru</t>
+  </si>
+  <si>
+    <t>K: 10</t>
+  </si>
+  <si>
+    <t>K: 50</t>
+  </si>
+  <si>
+    <t>K: 100</t>
+  </si>
+  <si>
+    <t>K: 150</t>
+  </si>
+  <si>
+    <t>K: 200</t>
+  </si>
 </sst>
 </file>
 
@@ -252,8 +280,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -853,7 +882,2342 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="cs-CZ"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="cs-CZ"/>
+              <a:t>K: 10</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="cs-CZ"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>List1!$B$66</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Impl. s filtrem</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>List1!$A$67:$A$71</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>List1!$B$67:$B$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3040.97</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2867.57</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2817.17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2805.95</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2811.61</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8815-45B6-8CA9-67E06EC0E52D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>List1!$C$66</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Impl. bez filtru</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>List1!$A$67:$A$71</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>List1!$C$67:$C$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>7056.26</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2703.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2168.04</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2163.2800000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2163.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8815-45B6-8CA9-67E06EC0E52D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1993851344"/>
+        <c:axId val="1993846768"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1993851344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="cs-CZ"/>
+                  <a:t>Selektivita filtru</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="cs-CZ"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="cs-CZ"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1993846768"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1993846768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="cs-CZ"/>
+                  <a:t>Čas [us]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="cs-CZ"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="cs-CZ"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1993851344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="cs-CZ"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="cs-CZ"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="cs-CZ"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="cs-CZ"/>
+              <a:t>K: 50</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="cs-CZ"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>List1!$B$66</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Impl. s filtrem</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>List1!$A$67:$A$71</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>List1!$B$82:$B$86</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3534.66</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3076.86</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2921.99</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2903.95</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2891.03</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EC83-4078-8B24-696C6CF84C5A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>List1!$C$66</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Impl. bez filtru</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>List1!$A$67:$A$71</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>List1!$C$82:$C$86</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>16451.46</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4966.3500000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2435.9899999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2129.4299999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2113.17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EC83-4078-8B24-696C6CF84C5A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1993851344"/>
+        <c:axId val="1993846768"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1993851344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="cs-CZ"/>
+                  <a:t>Selektivita filtru</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="cs-CZ"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="cs-CZ"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1993846768"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1993846768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="cs-CZ"/>
+                  <a:t>Čas [us]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="cs-CZ"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="cs-CZ"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1993851344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="cs-CZ"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="cs-CZ"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="cs-CZ"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="cs-CZ"/>
+              <a:t>K: 100</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="cs-CZ"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>List1!$B$66</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Impl. s filtrem</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>List1!$A$67:$A$71</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>List1!$B$88:$B$92</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3961.65</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3268.71</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2999.55</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2946.42</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2930.98</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E0C1-42B6-9888-E3BC5467F711}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>List1!$C$66</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Impl. bez filtru</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>List1!$A$67:$A$71</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>List1!$C$88:$C$92</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>25212.240000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8161.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2952.85</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2226.7399999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2117.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E0C1-42B6-9888-E3BC5467F711}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1993851344"/>
+        <c:axId val="1993846768"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1993851344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="cs-CZ"/>
+                  <a:t>Selektivita filtru</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="cs-CZ"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="cs-CZ"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1993846768"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1993846768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="cs-CZ"/>
+                  <a:t>Čas [us]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="cs-CZ"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="cs-CZ"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1993851344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="cs-CZ"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="cs-CZ"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="cs-CZ"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="cs-CZ"/>
+              <a:t>K: 200</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="cs-CZ"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>List1!$B$66</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Impl. s filtrem</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>List1!$A$67:$A$71</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>List1!$B$100:$B$104</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4578.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3587.91</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3175.45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3096.15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3051.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-174A-4A06-8053-4958821C53F0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>List1!$C$66</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Impl. bez filtru</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>List1!$A$67:$A$71</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>List1!$C$100:$C$104</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>37901.86</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14764.61</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5156.43</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3594.97</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2810.96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-174A-4A06-8053-4958821C53F0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1993851344"/>
+        <c:axId val="1993846768"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1993851344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="cs-CZ"/>
+                  <a:t>Selektivita filtru</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="cs-CZ"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="cs-CZ"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1993846768"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1993846768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="cs-CZ"/>
+                  <a:t>Čas [us]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="cs-CZ"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="cs-CZ"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1993851344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="cs-CZ"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="cs-CZ"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1056,6 +3420,2018 @@
       <a:solidFill>
         <a:schemeClr val="phClr"/>
       </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1564,6 +5940,156 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>247649</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Graf 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{222679E4-0D4D-4552-8782-AEE7F32C500A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>266701</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Graf 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5ABF7785-D9B8-4E51-B156-7A19E0E013C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>180976</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Graf 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B761D631-1B36-4BD3-97E9-B438573E6F49}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>85726</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Graf 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FA36810-1980-4B3E-A67E-E482843172E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2833,10 +7359,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M81"/>
+  <dimension ref="A1:M104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="C102" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J66" sqref="J66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3456,74 +7982,592 @@
         <v>2829</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>0.83862000000000003</v>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>64</v>
+      </c>
+      <c r="C66" t="s">
+        <v>65</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>0.89529999999999998</v>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="B67">
+        <v>3040.97</v>
+      </c>
+      <c r="C67">
+        <v>7056.26</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>0.92742000000000002</v>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="B68">
+        <v>2867.57</v>
+      </c>
+      <c r="C68">
+        <v>2703.6</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>0.94677</v>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B69">
+        <v>2817.17</v>
+      </c>
+      <c r="C69">
+        <v>2168.04</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>0.95975999999999995</v>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="B70">
+        <v>2805.95</v>
+      </c>
+      <c r="C70">
+        <v>2163.2800000000002</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>0.96877000000000002</v>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="B71">
+        <v>2811.61</v>
+      </c>
+      <c r="C71">
+        <v>2163.5</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>0.97485999999999995</v>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>66</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>0.97943000000000002</v>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="B76">
+        <v>3040.97</v>
+      </c>
+      <c r="C76">
+        <v>7056.26</v>
+      </c>
+      <c r="D76">
+        <v>0.91</v>
+      </c>
+      <c r="E76">
+        <v>10</v>
+      </c>
+      <c r="F76">
+        <v>715.28</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>0.98312999999999995</v>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="B77">
+        <v>2867.57</v>
+      </c>
+      <c r="C77">
+        <v>2703.6</v>
+      </c>
+      <c r="D77">
+        <v>0.99</v>
+      </c>
+      <c r="E77">
+        <v>10</v>
+      </c>
+      <c r="F77">
+        <v>124</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>0.98806000000000005</v>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B78">
+        <v>2817.17</v>
+      </c>
+      <c r="C78">
+        <v>2168.04</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+      <c r="E78">
+        <v>10</v>
+      </c>
+      <c r="F78">
+        <v>25.96</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>0.99114000000000002</v>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="B79">
+        <v>2805.95</v>
+      </c>
+      <c r="C79">
+        <v>2163.2800000000002</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+      <c r="E79">
+        <v>10</v>
+      </c>
+      <c r="F79">
+        <v>15.83</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>0.99326999999999999</v>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="B80">
+        <v>2811.61</v>
+      </c>
+      <c r="C80">
+        <v>2163.5</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+      <c r="E80">
+        <v>10</v>
+      </c>
+      <c r="F80">
+        <v>13.34</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>0.99475000000000002</v>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>67</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>0.99570999999999998</v>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="B82">
+        <v>3534.66</v>
+      </c>
+      <c r="C82">
+        <v>16451.46</v>
+      </c>
+      <c r="D82">
+        <v>0.73</v>
+      </c>
+      <c r="E82">
+        <v>49.67</v>
+      </c>
+      <c r="F82">
+        <v>1800.22</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="B83">
+        <v>3076.86</v>
+      </c>
+      <c r="C83">
+        <v>4966.3500000000004</v>
+      </c>
+      <c r="D83">
+        <v>0.93</v>
+      </c>
+      <c r="E83">
+        <v>49.96</v>
+      </c>
+      <c r="F83">
+        <v>426.49</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B84">
+        <v>2921.99</v>
+      </c>
+      <c r="C84">
+        <v>2435.9899999999998</v>
+      </c>
+      <c r="D84">
+        <v>0.99</v>
+      </c>
+      <c r="E84">
+        <v>50</v>
+      </c>
+      <c r="F84">
+        <v>105.44</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="B85">
+        <v>2903.95</v>
+      </c>
+      <c r="C85">
+        <v>2129.4299999999998</v>
+      </c>
+      <c r="D85">
+        <v>1</v>
+      </c>
+      <c r="E85">
+        <v>50</v>
+      </c>
+      <c r="F85">
+        <v>71.569999999999993</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="B86">
+        <v>2891.03</v>
+      </c>
+      <c r="C86">
+        <v>2113.17</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+      <c r="E86">
+        <v>50</v>
+      </c>
+      <c r="F86">
+        <v>58.76</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="B88">
+        <v>3961.65</v>
+      </c>
+      <c r="C88">
+        <v>25212.240000000002</v>
+      </c>
+      <c r="D88">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E88">
+        <v>98.77</v>
+      </c>
+      <c r="F88">
+        <v>2747.15</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="B89">
+        <v>3268.71</v>
+      </c>
+      <c r="C89">
+        <v>8161.75</v>
+      </c>
+      <c r="D89">
+        <v>0.85</v>
+      </c>
+      <c r="E89">
+        <v>99.88</v>
+      </c>
+      <c r="F89">
+        <v>753.35</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B90">
+        <v>2999.55</v>
+      </c>
+      <c r="C90">
+        <v>2952.85</v>
+      </c>
+      <c r="D90">
+        <v>0.97</v>
+      </c>
+      <c r="E90">
+        <v>100</v>
+      </c>
+      <c r="F90">
+        <v>221.45</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="B91">
+        <v>2946.42</v>
+      </c>
+      <c r="C91">
+        <v>2226.7399999999998</v>
+      </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+      <c r="E91">
+        <v>100</v>
+      </c>
+      <c r="F91">
+        <v>160.94999999999999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="B92">
+        <v>2930.98</v>
+      </c>
+      <c r="C92">
+        <v>2117.4</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+      <c r="E92">
+        <v>100</v>
+      </c>
+      <c r="F92">
+        <v>142.65</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="B94">
+        <v>4292.07</v>
+      </c>
+      <c r="C94">
+        <v>32129.19</v>
+      </c>
+      <c r="D94">
+        <v>0.5</v>
+      </c>
+      <c r="E94">
+        <v>147.38</v>
+      </c>
+      <c r="F94">
+        <v>3547.55</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="B95">
+        <v>3411.34</v>
+      </c>
+      <c r="C95">
+        <v>11481.21</v>
+      </c>
+      <c r="D95">
+        <v>0.76</v>
+      </c>
+      <c r="E95">
+        <v>149.78</v>
+      </c>
+      <c r="F95">
+        <v>1060.2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B96">
+        <v>3089.03</v>
+      </c>
+      <c r="C96">
+        <v>3804.7</v>
+      </c>
+      <c r="D96">
+        <v>0.95</v>
+      </c>
+      <c r="E96">
+        <v>150</v>
+      </c>
+      <c r="F96">
+        <v>319.3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="B97">
+        <v>3036.32</v>
+      </c>
+      <c r="C97">
+        <v>2642.55</v>
+      </c>
+      <c r="D97">
+        <v>0.98</v>
+      </c>
+      <c r="E97">
+        <v>150</v>
+      </c>
+      <c r="F97">
+        <v>226.25</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="B98">
+        <v>2992.38</v>
+      </c>
+      <c r="C98">
+        <v>2173.9899999999998</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+      <c r="E98">
+        <v>150</v>
+      </c>
+      <c r="F98">
+        <v>197.2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="B100">
+        <v>4578.5</v>
+      </c>
+      <c r="C100">
+        <v>37901.86</v>
+      </c>
+      <c r="D100">
+        <v>0.45</v>
+      </c>
+      <c r="E100">
+        <v>195.29</v>
+      </c>
+      <c r="F100">
+        <v>4234.3999999999996</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="B101">
+        <v>3587.91</v>
+      </c>
+      <c r="C101">
+        <v>14764.61</v>
+      </c>
+      <c r="D101">
+        <v>0.68</v>
+      </c>
+      <c r="E101">
+        <v>199.68</v>
+      </c>
+      <c r="F101">
+        <v>1367.6</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B102">
+        <v>3175.45</v>
+      </c>
+      <c r="C102">
+        <v>5156.43</v>
+      </c>
+      <c r="D102">
+        <v>0.9</v>
+      </c>
+      <c r="E102">
+        <v>200</v>
+      </c>
+      <c r="F102">
+        <v>417.5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="B103">
+        <v>3096.15</v>
+      </c>
+      <c r="C103">
+        <v>3594.97</v>
+      </c>
+      <c r="D103">
+        <v>0.95</v>
+      </c>
+      <c r="E103">
+        <v>200</v>
+      </c>
+      <c r="F103">
+        <v>290.35000000000002</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="B104">
+        <v>3051.25</v>
+      </c>
+      <c r="C104">
+        <v>2810.96</v>
+      </c>
+      <c r="D104">
+        <v>0.99</v>
+      </c>
+      <c r="E104">
+        <v>200</v>
+      </c>
+      <c r="F104">
+        <v>251.65</v>
       </c>
     </row>
   </sheetData>
